--- a/Reports/General Position/Conclusion for General Position.xlsx
+++ b/Reports/General Position/Conclusion for General Position.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108 Survey Project\Reports\General Position\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56E7CD9-E7BB-4DF9-A8B1-B5D34B7F7D13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C40FED-B85C-4296-8A44-5980E28D53BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="163">
   <si>
     <t>Timestamp</t>
   </si>
@@ -352,9 +352,6 @@
   </si>
   <si>
     <t>Graphic Designer, Web developer, Event Organizer</t>
-  </si>
-  <si>
-    <t>Average of Project Manager (7 years experience)</t>
   </si>
   <si>
     <t>Communication Skills</t>
@@ -555,7 +552,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -563,11 +560,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -580,7 +688,15 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,11 +1279,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43649.674378819444" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{BC607CB7-B6F9-4D76-867D-872EC0F9D40C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43664.36090659722" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{1D634DE2-8787-4363-8A57-D01BAF7FD7CE}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="39">
+  <cacheFields count="57">
     <cacheField name="Timestamp" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-06-12T11:44:54" maxDate="2019-07-02T16:38:02"/>
     </cacheField>
@@ -1229,7 +1345,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="290.69767441860466" maxValue="700"/>
     </cacheField>
     <cacheField name="Human Resources Officer (7 years experience)" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="465.11627906976742" maxValue="1000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="465.11627906976742" maxValue="1000"/>
     </cacheField>
     <cacheField name="Finance Officer (new graduate)" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="170" maxValue="500"/>
@@ -1283,7 +1399,61 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="What kind of skills does your Company or Organization require?" numFmtId="0">
-      <sharedItems longText="1"/>
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column1" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column2" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column3" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column4" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column5" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column6" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column7" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column8" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column9" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column10" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column11" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column12" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column13" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column14" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column15" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column16" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column17" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column18" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1335,7 +1505,25 @@
     <s v="marketing officer, accountant"/>
     <m/>
     <m/>
-    <s v="Communication Skills, Teamwork and Collaboration, Languages, Public Speaking, Sales and Marketing Skills"/>
+    <s v="Communication Skills"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Languages"/>
+    <s v=" Public Speaking"/>
+    <s v=" Sales and Marketing Skills"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-12T15:10:55"/>
@@ -1376,7 +1564,25 @@
     <s v="Machine operators"/>
     <m/>
     <m/>
-    <s v="Teamwork and Collaboration, Problem Solving, Flexibility / Adaptability"/>
+    <s v="Communication Skills"/>
+    <s v=" Problem Solving"/>
+    <s v=" Flexibility / Adaptability"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-17T17:34:01"/>
@@ -1417,7 +1623,25 @@
     <s v="content creator "/>
     <m/>
     <m/>
-    <s v="Communication Skills, Technical Knowledge, Teamwork and Collaboration, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Flexibility / Adaptability, Leadership / Management Skills, Self-confidence, Sales and Marketing Skills, Time Management"/>
+    <s v="Communication Skills"/>
+    <s v=" Technical Knowledge"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Leadership / Management Skills"/>
+    <s v=" Self-confidence"/>
+    <s v=" Sales and Marketing Skills"/>
+    <s v=" Time Management"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-17T19:02:07"/>
@@ -1458,7 +1682,25 @@
     <s v="Project management"/>
     <m/>
     <m/>
-    <s v="Communication Skills, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Flexibility / Adaptability, Self-confidence, Time Management"/>
+    <s v="Communication Skills"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Self-confidence"/>
+    <s v=" Time Management"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-17T19:08:40"/>
@@ -1499,7 +1741,25 @@
     <s v="Project staff, trainers, and adminstrative staff"/>
     <m/>
     <m/>
-    <s v="Communication Skills, Technical Knowledge, Teamwork and Collaboration, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Flexibility / Adaptability, Leadership / Management Skills, Self-confidence, Languages, Public Speaking, Sales and Marketing Skills, Computer / IT Literacy, Time Management, Persuasion, Facilitation skills, edutainment, design thinking,l"/>
+    <s v="Communication Skills"/>
+    <s v=" Technical Knowledge"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Leadership / Management Skills"/>
+    <s v=" Self-confidence"/>
+    <s v=" Languages"/>
+    <s v=" Public Speaking"/>
+    <s v=" Sales and Marketing Skills"/>
+    <s v=" Computer / IT Literacy"/>
+    <s v=" Time Management"/>
+    <s v=" Persuasion"/>
+    <s v=" Facilitation skills"/>
+    <s v=" edutainment"/>
+    <s v=" design thinking"/>
+    <s v="l"/>
   </r>
   <r>
     <d v="2019-06-20T11:59:11"/>
@@ -1540,7 +1800,25 @@
     <m/>
     <m/>
     <m/>
-    <s v="Communication Skills, Teamwork and Collaboration, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Flexibility / Adaptability, Leadership / Management Skills, Self-confidence, Languages, Computer / IT Literacy, Time Management, Persuasion"/>
+    <s v="Communication Skills"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Leadership / Management Skills"/>
+    <s v=" Self-confidence"/>
+    <s v=" Languages"/>
+    <s v=" Computer / IT Literacy"/>
+    <s v=" Time Management"/>
+    <s v=" Persuasion"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-24T10:19:22"/>
@@ -1581,7 +1859,25 @@
     <s v="admin assistant 100%"/>
     <m/>
     <m/>
-    <s v="Communication Skills, Technical Knowledge, Teamwork and Collaboration, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Flexibility / Adaptability, Leadership / Management Skills, Self-confidence, Languages, Public Speaking, Computer / IT Literacy, Time Management"/>
+    <s v="Communication Skills"/>
+    <s v=" Technical Knowledge"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Leadership / Management Skills"/>
+    <s v=" Self-confidence"/>
+    <s v=" Languages"/>
+    <s v=" Public Speaking"/>
+    <s v=" Computer / IT Literacy"/>
+    <s v=" Time Management"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-26T08:52:10"/>
@@ -1622,7 +1918,25 @@
     <m/>
     <m/>
     <m/>
-    <s v="Technical Knowledge, Teamwork and Collaboration, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Languages, Computer / IT Literacy, Time Management"/>
+    <s v="Communication Skills"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Languages"/>
+    <s v=" Computer / IT Literacy"/>
+    <s v=" Time Management"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-27T10:32:40"/>
@@ -1663,7 +1977,25 @@
     <s v="Admin, Sales, Driver, Marketing"/>
     <m/>
     <m/>
-    <s v="Communication Skills, Technical Knowledge, Teamwork and Collaboration, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Global Fluency &amp; Perspective, Flexibility / Adaptability, Leadership / Management Skills, Self-confidence, Languages, Public Speaking, Sales and Marketing Skills, Computer / IT Literacy, Time Management, Persuasion, Independent (Work without supervision), Ownership"/>
+    <s v="Communication Skills"/>
+    <s v=" Technical Knowledge"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Global Fluency &amp; Perspective"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Leadership / Management Skills"/>
+    <s v=" Self-confidence"/>
+    <s v=" Languages"/>
+    <s v=" Public Speaking"/>
+    <s v=" Sales and Marketing Skills"/>
+    <s v=" Computer / IT Literacy"/>
+    <s v=" Time Management"/>
+    <s v=" Persuasion"/>
+    <s v=" Independent (Work without supervision)"/>
+    <s v=" Ownership"/>
+    <m/>
   </r>
   <r>
     <d v="2019-07-02T16:38:02"/>
@@ -1704,7 +2036,25 @@
     <s v="We have new project "/>
     <m/>
     <m/>
-    <s v="Communication Skills, Teamwork and Collaboration, Problem Solving, Global Fluency &amp; Perspective, Flexibility / Adaptability, Leadership / Management Skills, Time Management"/>
+    <s v="Communication Skills"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Global Fluency &amp; Perspective"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Leadership / Management Skills"/>
+    <s v=" Time Management"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-12T15:37:54"/>
@@ -1745,7 +2095,25 @@
     <m/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v="Communication Skills"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-18T02:53:17"/>
@@ -1786,7 +2154,25 @@
     <m/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v="Communication Skills"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-18T16:14:26"/>
@@ -1827,7 +2213,25 @@
     <s v="sale"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຈູງໃຈ"/>
+    <s v="Communication Skills"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-19T09:53:48"/>
@@ -1868,7 +2272,25 @@
     <s v="Graphic Designer, Web developer, Event Organizer"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ, ທັກສະດ້ານການຈູງໃຈ"/>
+    <s v="Communication Skills"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v=" ທັກສະດ້ານການຈູງໃຈ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-20T13:05:16"/>
@@ -1891,7 +2313,7 @@
     <n v="139.53488372093022"/>
     <n v="290.69767441860466"/>
     <n v="465.11627906976742"/>
-    <s v="-"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -1909,7 +2331,25 @@
     <m/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານການຈັດການເວລາ, ຂື້ນກັບໜ້າວຽກ ທັກສະທີ່ສໍາຄັນກໍ່ຈະຕ່າງອອກໄປ"/>
+    <s v="Communication Skills"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v=" ຂື້ນກັບໜ້າວຽກ ທັກສະທີ່ສໍາຄັນກໍ່ຈະຕ່າງອອກໄປ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-20T16:13:01"/>
@@ -1950,15 +2390,33 @@
     <s v="ບັນຊີ ການເງິນ"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v="Communication Skills"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A1D17AE4-C212-49E8-A8D5-651FA5DA439D}" name="RawData" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="39">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{057224BB-AF8F-475B-BAC6-BFF39804056B}" name="RawData" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="57">
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1967,7 +2425,25 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1999,15 +2475,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Project Manager (7 years experience)" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2382,27 +2849,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C56CC6-8191-480F-B692-4D3680E6046B}">
-  <dimension ref="A3:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E31532-76C6-4E07-82EB-4513E407D992}">
+  <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>1186.3430232558139</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2416,9 +2965,9 @@
   </sheetPr>
   <dimension ref="A1:BI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN20" sqref="AN20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2576,58 +3125,58 @@
         <v>10</v>
       </c>
       <c r="AN1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO1" t="s">
         <v>113</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>114</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>115</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>116</v>
-      </c>
       <c r="AR1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS1" t="s">
         <v>125</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>126</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>127</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>128</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>129</v>
       </c>
-      <c r="AW1" t="s">
-        <v>130</v>
-      </c>
       <c r="AX1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY1" t="s">
         <v>137</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>138</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>139</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>140</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>141</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>142</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>143</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2740,19 +3289,19 @@
         <v>17</v>
       </c>
       <c r="AM2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN2" t="s">
         <v>108</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>109</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>110</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>111</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2841,13 +3390,13 @@
         <v>22</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO3" t="s">
         <v>117</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2903,37 +3452,37 @@
         <v>27</v>
       </c>
       <c r="AM4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO4" t="s">
         <v>108</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>119</v>
       </c>
-      <c r="AO4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP4" t="s">
+      <c r="AR4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS4" t="s">
         <v>117</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR4" t="s">
+      <c r="AT4" t="s">
         <v>121</v>
       </c>
-      <c r="AS4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>122</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW4" t="s">
         <v>123</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3032,25 +3581,25 @@
         <v>31</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>117</v>
       </c>
-      <c r="AO5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>118</v>
-      </c>
       <c r="AR5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS5" t="s">
         <v>123</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3097,61 +3646,61 @@
         <v>34</v>
       </c>
       <c r="AM6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO6" t="s">
         <v>108</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AP6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>119</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AR6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV6" t="s">
         <v>109</v>
       </c>
-      <c r="AP6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU6" t="s">
+      <c r="AW6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>123</v>
       </c>
-      <c r="AV6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY6" t="s">
+      <c r="BA6" t="s">
         <v>131</v>
       </c>
-      <c r="AZ6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>132</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>133</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BD6" t="s">
         <v>134</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BE6" t="s">
         <v>135</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3231,40 +3780,40 @@
         <v>39</v>
       </c>
       <c r="AM7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN7" t="s">
         <v>108</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU7" t="s">
         <v>109</v>
       </c>
-      <c r="AO7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT7" t="s">
+      <c r="AV7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW7" t="s">
         <v>123</v>
       </c>
-      <c r="AU7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV7" t="s">
+      <c r="AX7" t="s">
         <v>131</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3321,43 +3870,43 @@
         <v>44</v>
       </c>
       <c r="AM8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO8" t="s">
         <v>108</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AP8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>119</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AR8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV8" t="s">
         <v>109</v>
       </c>
-      <c r="AP8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU8" t="s">
+      <c r="AW8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY8" t="s">
         <v>123</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3386,28 +3935,28 @@
         <v>39</v>
       </c>
       <c r="AM9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN9" t="s">
         <v>108</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR9" t="s">
         <v>109</v>
       </c>
-      <c r="AO9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>110</v>
-      </c>
       <c r="AS9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AT9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3482,58 +4031,58 @@
         <v>52</v>
       </c>
       <c r="AM10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO10" t="s">
         <v>108</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AP10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>119</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AR10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW10" t="s">
         <v>109</v>
       </c>
-      <c r="AP10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS10" t="s">
+      <c r="AX10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC10" t="s">
         <v>145</v>
       </c>
-      <c r="AT10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>131</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>146</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3604,25 +4153,25 @@
         <v>56</v>
       </c>
       <c r="AM11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN11" t="s">
         <v>108</v>
       </c>
-      <c r="AN11" t="s">
-        <v>109</v>
-      </c>
       <c r="AO11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>117</v>
       </c>
-      <c r="AP11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>118</v>
-      </c>
       <c r="AR11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AS11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3701,31 +4250,31 @@
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO12" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AO12" s="6" t="s">
+      <c r="AP12" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AP12" s="6" t="s">
+      <c r="AQ12" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="AQ12" s="6" t="s">
+      <c r="AR12" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AR12" s="6" t="s">
+      <c r="AS12" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="AS12" s="6" t="s">
+      <c r="AT12" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="AT12" s="6" t="s">
+      <c r="AU12" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="AU12" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
@@ -3850,43 +4399,43 @@
       <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
       <c r="AM13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AO13" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP13" s="6" t="s">
+      <c r="AR13" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ13" s="6" t="s">
+      <c r="AS13" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AR13" s="6" t="s">
+      <c r="AT13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU13" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV13" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="AS13" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT13" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU13" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AV13" s="6" t="s">
+      <c r="AW13" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="AW13" s="6" t="s">
+      <c r="AX13" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="AX13" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="AY13" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AZ13" s="6"/>
       <c r="BA13" s="6"/>
@@ -3971,7 +4520,7 @@
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN14" s="6"/>
       <c r="AO14" s="6"/>
@@ -4108,49 +4657,49 @@
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
       <c r="AM15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO15" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP15" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ15" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AO15" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP15" s="6" t="s">
+      <c r="AR15" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AQ15" s="6" t="s">
+      <c r="AS15" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AR15" s="6" t="s">
+      <c r="AT15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU15" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV15" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="AS15" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT15" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU15" s="6" t="s">
+      <c r="AW15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX15" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AV15" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AW15" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX15" s="6" t="s">
+      <c r="AY15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA15" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="AY15" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AZ15" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA15" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="BB15" s="6"/>
       <c r="BC15" s="6"/>
@@ -4237,37 +4786,37 @@
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
       <c r="AM16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO16" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ16" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="AO16" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP16" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ16" s="6" t="s">
+      <c r="AR16" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AR16" s="6" t="s">
+      <c r="AS16" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AS16" s="6" t="s">
+      <c r="AT16" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="AT16" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="AU16" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AW16" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AX16" s="6"/>
       <c r="AY16" s="6"/>
@@ -4422,19 +4971,19 @@
       <c r="AK17" s="6"/>
       <c r="AL17" s="6"/>
       <c r="AM17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AN17" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AO17" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AP17" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AQ17" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
